--- a/Файлы/1 курс/2 семестр/Теоретическая информатика/Лабы/26.02.25 - Лаба №2/дима/Books.xlsx
+++ b/Файлы/1 курс/2 семестр/Теоретическая информатика/Лабы/26.02.25 - Лаба №2/дима/Books.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvidmi\Desktop\git\Codespace\Файлы\1 курс\2 семестр\Теоретическая информатика\Лабы\26.02.25 - Лаба №2\дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3A09F-1819-4236-8642-58CD2BFBF702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C82E9-B8D4-4B19-9DCD-8E98F8230C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Выручка " sheetId="1" r:id="rId1"/>
     <sheet name="Себестоимость" sheetId="2" r:id="rId2"/>
     <sheet name="График" sheetId="3" r:id="rId3"/>
+    <sheet name="Прибыль" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -108,50 +112,6 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>1996,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>долл.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Годы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>1997,</t>
     </r>
     <r>
       <rPr>
@@ -405,6 +365,34 @@
   <si>
     <t>Итого</t>
   </si>
+  <si>
+    <t>Всего за 6 лет, долл.</t>
+  </si>
+  <si>
+    <t>Доля в общей выручке</t>
+  </si>
+  <si>
+    <r>
+      <t>1997,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>долл.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -464,6 +452,10 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -480,12 +472,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -789,11 +781,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,12 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -819,6 +896,34 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -853,7 +958,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,46 +976,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -918,9 +1001,74 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,6 +1098,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Выручка</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -990,1202 +1163,19 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Себестоимость!$A$3:$B$3</c:f>
+              <c:f>'Выручка '!$C$2:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>№ п/п</c:v>
+                  <c:v>Годы</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Магазин</c:v>
+                  <c:v>1994,
+долл.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>№ п/п</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Магазин</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Дом книги</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1356.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1452</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2584.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2563.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2586.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12864.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2144.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2586.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1356.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Книжный мир</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$6:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1523.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1675.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2256.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2464.3000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2756.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12828.400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2138.0666666666671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2756.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1523.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$7:$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Знание</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>456.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>356.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>456.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>412.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2806.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>467.76666666666665</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>356.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$8:$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Наука</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$8:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>257.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>763.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>915.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>612.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3703.7000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>617.28333333333342</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>915.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>257.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$9:$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Мысль</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6547.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5624.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4563.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4423</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4213.1000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3918.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29289.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4881.5999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6547.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3918.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$10:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Книжный город</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>545.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>736.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>823.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>615.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>918.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4269.0999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>711.51666666666654</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>918.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>545.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$11:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Книголюб</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$11:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2664.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3651.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4668.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4789.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4987.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25883.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4313.9333333333334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2664.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Себестоимость!$A$12:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Итого</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Себестоимость!$C$1:$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Годы</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Всего за 6 лет,допл.</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Среднегодовая себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Максималльная себестоимость</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Минимальная себестоимость</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Себестоимость!$C$12:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>13350.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13910.399999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15642.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16202.099999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16214.300000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16326</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91645.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15274.316666666666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19409.400000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10621.199999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-06DB-457F-A803-9DD9E157C7AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1076142031"/>
-        <c:axId val="1076141551"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1076142031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1076141551"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1076141551"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1076142031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2267,6 +1257,21 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Выручка '!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Годы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995,
+долл.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2341,13 +1346,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66D8-4535-820A-D38F5318AB3C}"/>
+              <c16:uniqueId val="{00000000-388D-4F4E-B487-E5D3FD1B19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Выручка '!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Годы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996,
+долл.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2422,13 +1442,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-66D8-4535-820A-D38F5318AB3C}"/>
+              <c16:uniqueId val="{00000001-388D-4F4E-B487-E5D3FD1B19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Выручка '!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Годы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997,
+долл.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2503,13 +1538,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-66D8-4535-820A-D38F5318AB3C}"/>
+              <c16:uniqueId val="{00000002-388D-4F4E-B487-E5D3FD1B19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Выручка '!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Годы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998,
+долл.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2584,13 +1634,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-66D8-4535-820A-D38F5318AB3C}"/>
+              <c16:uniqueId val="{00000003-388D-4F4E-B487-E5D3FD1B19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Выручка '!$H$2:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Годы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999,
+долл.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2665,7 +1730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-66D8-4535-820A-D38F5318AB3C}"/>
+              <c16:uniqueId val="{00000004-388D-4F4E-B487-E5D3FD1B19EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2696,10 +1761,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2760,7 +1822,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2788,6 +1852,1393 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78620822397200352"/>
+          <c:y val="0.16108449985418488"/>
+          <c:w val="0.19712510936132982"/>
+          <c:h val="0.77083989501312333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Доля магазинов в общей прибыли</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Доля в общей выручке</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2398-4AD9-AD43-9B6DBF750196}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.19412041320935031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29516000991055219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6242737739483941E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9795822398859273E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22002437186818963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.281040001213537E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23184624486142921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2398-4AD9-AD43-9B6DBF750196}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Прибыль магазинов по годам</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BF3-4561-830B-BC35FBD37070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1969.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BF3-4561-830B-BC35FBD37070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BF3-4561-830B-BC35FBD37070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9BF3-4561-830B-BC35FBD37070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1773.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000.1999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9BF3-4561-830B-BC35FBD37070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Прибыль!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1999</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Прибыль!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Дом книги</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Книжный мир</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Знание</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Наука</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Мысль</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Книжный двор</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Книголюб</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Прибыль!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1068.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1808.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2068.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-163.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2133.1999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9BF3-4561-830B-BC35FBD37070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-753786480"/>
+        <c:axId val="-753784304"/>
+        <c:axId val="-990495152"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-753786480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-753784304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-753784304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-753786480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-990495152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-753784304"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2944,6 +3395,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3461,7 +3952,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3518,7 +4009,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3570,9 +4061,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3585,16 +4078,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3620,9 +4115,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3635,7 +4127,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3678,22 +4170,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3798,8 +4291,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3931,19 +4424,514 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3981,54 +4969,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DF150F-6F7C-D2EE-83F9-AA682A2BAFBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -4058,6 +5005,599 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E135D3-CEC7-4A4A-ACC8-6230C3ECA8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51633AFD-B895-42A6-A81D-A35BC755ACCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Выручка"/>
+      <sheetName val="Себестоимость"/>
+      <sheetName val="График"/>
+      <sheetName val="Прибыль"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>2456.1</v>
+          </cell>
+          <cell r="D4">
+            <v>2562</v>
+          </cell>
+          <cell r="E4">
+            <v>3323</v>
+          </cell>
+          <cell r="F4">
+            <v>4564.5</v>
+          </cell>
+          <cell r="G4">
+            <v>3983.2</v>
+          </cell>
+          <cell r="H4">
+            <v>3654.3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>3520</v>
+          </cell>
+          <cell r="D5">
+            <v>3645.2</v>
+          </cell>
+          <cell r="E5">
+            <v>4553</v>
+          </cell>
+          <cell r="F5">
+            <v>3656.2</v>
+          </cell>
+          <cell r="G5">
+            <v>4564.3</v>
+          </cell>
+          <cell r="H5">
+            <v>4564.3999999999996</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>676.2</v>
+          </cell>
+          <cell r="D6">
+            <v>525.20000000000005</v>
+          </cell>
+          <cell r="E6">
+            <v>589</v>
+          </cell>
+          <cell r="F6">
+            <v>756</v>
+          </cell>
+          <cell r="G6">
+            <v>654.1</v>
+          </cell>
+          <cell r="H6">
+            <v>644.1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>353.3</v>
+          </cell>
+          <cell r="D7">
+            <v>632</v>
+          </cell>
+          <cell r="E7">
+            <v>863</v>
+          </cell>
+          <cell r="F7">
+            <v>863.1</v>
+          </cell>
+          <cell r="G7">
+            <v>1023.2</v>
+          </cell>
+          <cell r="H7">
+            <v>752.1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>7547.5</v>
+          </cell>
+          <cell r="D8">
+            <v>6587.7</v>
+          </cell>
+          <cell r="E8">
+            <v>5896.2</v>
+          </cell>
+          <cell r="F8">
+            <v>5987</v>
+          </cell>
+          <cell r="G8">
+            <v>5987</v>
+          </cell>
+          <cell r="H8">
+            <v>5987</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>655.4</v>
+          </cell>
+          <cell r="D9">
+            <v>731</v>
+          </cell>
+          <cell r="E9">
+            <v>926.1</v>
+          </cell>
+          <cell r="F9">
+            <v>952.1</v>
+          </cell>
+          <cell r="G9">
+            <v>756.2</v>
+          </cell>
+          <cell r="H9">
+            <v>755</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>4000.6</v>
+          </cell>
+          <cell r="D10">
+            <v>4562.3</v>
+          </cell>
+          <cell r="E10">
+            <v>5698.2</v>
+          </cell>
+          <cell r="F10">
+            <v>6549.2</v>
+          </cell>
+          <cell r="G10">
+            <v>6987.5</v>
+          </cell>
+          <cell r="H10">
+            <v>7256.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="C5">
+            <v>1356.1</v>
+          </cell>
+          <cell r="D5">
+            <v>1452</v>
+          </cell>
+          <cell r="E5">
+            <v>2323</v>
+          </cell>
+          <cell r="F5">
+            <v>2584.5</v>
+          </cell>
+          <cell r="G5">
+            <v>2563.1999999999998</v>
+          </cell>
+          <cell r="H5">
+            <v>2586.1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1523.5</v>
+          </cell>
+          <cell r="D6">
+            <v>1675.2</v>
+          </cell>
+          <cell r="E6">
+            <v>2153</v>
+          </cell>
+          <cell r="F6">
+            <v>2256.1999999999998</v>
+          </cell>
+          <cell r="G6">
+            <v>2464.3000000000002</v>
+          </cell>
+          <cell r="H6">
+            <v>2756.2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>456.2</v>
+          </cell>
+          <cell r="D7">
+            <v>356.2</v>
+          </cell>
+          <cell r="E7">
+            <v>563</v>
+          </cell>
+          <cell r="F7">
+            <v>563</v>
+          </cell>
+          <cell r="G7">
+            <v>456.1</v>
+          </cell>
+          <cell r="H7">
+            <v>412.1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>257.3</v>
+          </cell>
+          <cell r="D8">
+            <v>520</v>
+          </cell>
+          <cell r="E8">
+            <v>636</v>
+          </cell>
+          <cell r="F8">
+            <v>763.1</v>
+          </cell>
+          <cell r="G8">
+            <v>915.2</v>
+          </cell>
+          <cell r="H8">
+            <v>612.1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>6547.5</v>
+          </cell>
+          <cell r="D9">
+            <v>5624.7</v>
+          </cell>
+          <cell r="E9">
+            <v>4563.2</v>
+          </cell>
+          <cell r="F9">
+            <v>4423</v>
+          </cell>
+          <cell r="G9">
+            <v>4213.1000000000004</v>
+          </cell>
+          <cell r="H9">
+            <v>3918.1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>545.4</v>
+          </cell>
+          <cell r="D10">
+            <v>631</v>
+          </cell>
+          <cell r="E10">
+            <v>736.1</v>
+          </cell>
+          <cell r="F10">
+            <v>823.1</v>
+          </cell>
+          <cell r="G10">
+            <v>615.1</v>
+          </cell>
+          <cell r="H10">
+            <v>918.4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>2664.6</v>
+          </cell>
+          <cell r="D11">
+            <v>3651.3</v>
+          </cell>
+          <cell r="E11">
+            <v>4668.2</v>
+          </cell>
+          <cell r="F11">
+            <v>4789.2</v>
+          </cell>
+          <cell r="G11">
+            <v>4987.3</v>
+          </cell>
+          <cell r="H11">
+            <v>5123</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="I2" t="str">
+            <v>Доля в общей выручке</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>1994</v>
+          </cell>
+          <cell r="C3">
+            <v>1995</v>
+          </cell>
+          <cell r="D3">
+            <v>1996</v>
+          </cell>
+          <cell r="E3">
+            <v>1997</v>
+          </cell>
+          <cell r="F3">
+            <v>1998</v>
+          </cell>
+          <cell r="G3">
+            <v>1999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Дом книги</v>
+          </cell>
+          <cell r="B4">
+            <v>1100</v>
+          </cell>
+          <cell r="C4">
+            <v>1110</v>
+          </cell>
+          <cell r="D4">
+            <v>1000</v>
+          </cell>
+          <cell r="E4">
+            <v>1980</v>
+          </cell>
+          <cell r="F4">
+            <v>1420</v>
+          </cell>
+          <cell r="G4">
+            <v>1068.2000000000003</v>
+          </cell>
+          <cell r="I4">
+            <v>0.19412041320935031</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Книжный мир</v>
+          </cell>
+          <cell r="B5">
+            <v>1996.5</v>
+          </cell>
+          <cell r="C5">
+            <v>1969.9999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>2400</v>
+          </cell>
+          <cell r="E5">
+            <v>1400</v>
+          </cell>
+          <cell r="F5">
+            <v>2100</v>
+          </cell>
+          <cell r="G5">
+            <v>1808.1999999999998</v>
+          </cell>
+          <cell r="I5">
+            <v>0.29516000991055219</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Знание</v>
+          </cell>
+          <cell r="B6">
+            <v>220.00000000000006</v>
+          </cell>
+          <cell r="C6">
+            <v>169.00000000000006</v>
+          </cell>
+          <cell r="D6">
+            <v>26</v>
+          </cell>
+          <cell r="E6">
+            <v>193</v>
+          </cell>
+          <cell r="F6">
+            <v>198</v>
+          </cell>
+          <cell r="G6">
+            <v>232</v>
+          </cell>
+          <cell r="I6">
+            <v>2.6242737739483941E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Наука</v>
+          </cell>
+          <cell r="B7">
+            <v>96</v>
+          </cell>
+          <cell r="C7">
+            <v>112</v>
+          </cell>
+          <cell r="D7">
+            <v>227</v>
+          </cell>
+          <cell r="E7">
+            <v>100</v>
+          </cell>
+          <cell r="F7">
+            <v>108</v>
+          </cell>
+          <cell r="G7">
+            <v>140</v>
+          </cell>
+          <cell r="I7">
+            <v>1.9795822398859273E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Мысль</v>
+          </cell>
+          <cell r="B8">
+            <v>1000</v>
+          </cell>
+          <cell r="C8">
+            <v>963</v>
+          </cell>
+          <cell r="D8">
+            <v>1333</v>
+          </cell>
+          <cell r="E8">
+            <v>1564</v>
+          </cell>
+          <cell r="F8">
+            <v>1773.8999999999996</v>
+          </cell>
+          <cell r="G8">
+            <v>2068.9</v>
+          </cell>
+          <cell r="I8">
+            <v>0.22002437186818963</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Книжный двор</v>
+          </cell>
+          <cell r="B9">
+            <v>110</v>
+          </cell>
+          <cell r="C9">
+            <v>100</v>
+          </cell>
+          <cell r="D9">
+            <v>190</v>
+          </cell>
+          <cell r="E9">
+            <v>129</v>
+          </cell>
+          <cell r="F9">
+            <v>141.10000000000002</v>
+          </cell>
+          <cell r="G9">
+            <v>-163.39999999999998</v>
+          </cell>
+          <cell r="I9">
+            <v>1.281040001213537E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Книголюб</v>
+          </cell>
+          <cell r="B10">
+            <v>1336</v>
+          </cell>
+          <cell r="C10">
+            <v>911</v>
+          </cell>
+          <cell r="D10">
+            <v>1030</v>
+          </cell>
+          <cell r="E10">
+            <v>1760</v>
+          </cell>
+          <cell r="F10">
+            <v>2000.1999999999998</v>
+          </cell>
+          <cell r="G10">
+            <v>2133.1999999999998</v>
+          </cell>
+          <cell r="I10">
+            <v>0.23184624486142921</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4379,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4399,52 +5939,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="A1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="12" t="s">
+      <c r="C2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="21"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4455,25 +5995,25 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>2456.1</v>
@@ -4490,14 +6030,14 @@
       <c r="G4" s="2">
         <v>3983.2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>3654.3</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <f>SUM(C4:H4)</f>
         <v>20543.099999999999</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f>I4/$I$11</f>
         <v>0.15657886412850028</v>
       </c>
@@ -4506,15 +6046,15 @@
         <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>3520</v>
@@ -4531,14 +6071,14 @@
       <c r="G5" s="2">
         <v>4564.3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>4564.3999999999996</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <f t="shared" ref="I5:I10" si="0">SUM(C5:H5)</f>
         <v>24503.1</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <f>I5/$I$11</f>
         <v>0.18676185997376515</v>
       </c>
@@ -4547,15 +6087,15 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>676.2</v>
@@ -4575,12 +6115,12 @@
       <c r="H6" s="2">
         <v>644.1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>3844.6</v>
       </c>
-      <c r="J6" s="8">
-        <f t="shared" ref="J5:J10" si="2">I6/$I$11</f>
+      <c r="J6" s="6">
+        <f t="shared" ref="J6:J10" si="2">I6/$I$11</f>
         <v>2.9303420663309439E-2</v>
       </c>
       <c r="K6" s="2">
@@ -4588,15 +6128,15 @@
         <v>1</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>353.3</v>
@@ -4616,11 +6156,11 @@
       <c r="H7" s="2">
         <v>752.1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>4486.7000000000007</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>3.419748673205808E-2</v>
       </c>
@@ -4629,15 +6169,15 @@
         <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>7547.5</v>
@@ -4657,11 +6197,11 @@
       <c r="H8" s="2">
         <v>5987</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>37992.400000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>0.289576881654455</v>
       </c>
@@ -4670,15 +6210,15 @@
         <v>7</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>655.4</v>
@@ -4698,11 +6238,11 @@
       <c r="H9" s="2">
         <v>755</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" si="0"/>
         <v>4775.8</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>3.6400997868135367E-2</v>
       </c>
@@ -4711,39 +6251,39 @@
         <v>3</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
         <v>4000.6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>4562.3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>5698.2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>6549.2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>6987.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>7256.2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>35054</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <f t="shared" si="2"/>
         <v>0.26718048897977659</v>
       </c>
@@ -4752,7 +6292,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4761,7 +6301,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4770,7 +6310,7 @@
         <f>SUM(I4:I10)</f>
         <v>131199.70000000001</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <f>SUM(J4:J10)</f>
         <v>0.99999999999999978</v>
       </c>
@@ -4796,394 +6336,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B818C59-7F6B-4F5B-AE3E-89DF2D7565CB}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="A1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="39" t="s">
         <v>34</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="31">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="8">
         <v>1994</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="8">
         <v>1995</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="8">
         <v>1996</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="8">
         <v>1997</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="8">
         <v>1998</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="9">
         <v>1999</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="30"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12">
         <v>1356.1</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="12">
         <v>1452</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="12">
         <v>2323</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="12">
         <v>2584.5</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="12">
         <v>2563.1999999999998</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="13">
         <v>2586.1</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="14">
         <f>SUM(C5:H5)</f>
         <v>12864.9</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="15">
         <f>AVERAGE(C5:H5)</f>
         <v>2144.15</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="15">
         <f>MAX(C5:H5)</f>
         <v>2586.1</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="16">
         <f>MIN(C5:H5)</f>
         <v>1356.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="35">
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12">
         <v>1523.5</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="12">
         <v>1675.2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="12">
         <v>2153</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="12">
         <v>2256.1999999999998</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="12">
         <v>2464.3000000000002</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="13">
         <v>2756.2</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="14">
         <f t="shared" ref="I6:I11" si="0">SUM(C6:H6)</f>
         <v>12828.400000000001</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="15">
         <f t="shared" ref="J6:J11" si="1">AVERAGE(C6:H6)</f>
         <v>2138.0666666666671</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="15">
         <f t="shared" ref="K6:K11" si="2">MAX(C6:H6)</f>
         <v>2756.2</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="16">
         <f t="shared" ref="L6:L11" si="3">MIN(C6:H6)</f>
         <v>1523.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
         <v>456.2</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="12">
         <v>356.2</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="12">
         <v>563</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="12">
         <v>563</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="12">
         <v>456.1</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="13">
         <v>412.1</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="14">
         <f t="shared" si="0"/>
         <v>2806.6</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="15">
         <f t="shared" si="1"/>
         <v>467.76666666666665</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="15">
         <f t="shared" si="2"/>
         <v>563</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="16">
         <f t="shared" si="3"/>
         <v>356.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12">
         <v>257.3</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="12">
         <v>520</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="12">
         <v>636</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="12">
         <v>763.1</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="12">
         <v>915.2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="13">
         <v>612.1</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>3703.7000000000003</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="15">
         <f t="shared" si="1"/>
         <v>617.28333333333342</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>915.2</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="16">
         <f t="shared" si="3"/>
         <v>257.3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="12">
         <v>6547.5</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="12">
         <v>5624.7</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="12">
         <v>4563.2</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="12">
         <v>4423</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="12">
         <v>4213.1000000000004</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="13">
         <v>3918.1</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="14">
         <f t="shared" si="0"/>
         <v>29289.599999999999</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="15">
         <f t="shared" si="1"/>
         <v>4881.5999999999995</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
         <v>6547.5</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="16">
         <f t="shared" si="3"/>
         <v>3918.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12">
         <v>545.4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="12">
         <v>631</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="12">
         <v>736.1</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="12">
         <v>823.1</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="12">
         <v>615.1</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="13">
         <v>918.4</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>4269.0999999999995</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>711.51666666666654</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
         <v>918.4</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="16">
         <f t="shared" si="3"/>
         <v>545.4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12">
         <v>2664.6</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="12">
         <v>3651.3</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="12">
         <v>4668.2</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="12">
         <v>4789.2</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="12">
         <v>4987.3</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="13">
         <v>5123</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>25883.599999999999</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="15">
         <f t="shared" si="1"/>
         <v>4313.9333333333334</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
         <v>5123</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="16">
         <f t="shared" si="3"/>
         <v>2664.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="42">
         <f>SUM(C5:C11)</f>
@@ -5238,7 +6778,6 @@
     <mergeCell ref="L2:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5246,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63DE504-BB0C-4024-84EF-BFF2E0F767C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5255,4 +6794,393 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D0A94-AB4C-4F4E-A500-54E927D41BBE}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54">
+        <v>1994</v>
+      </c>
+      <c r="C3" s="54">
+        <v>1995</v>
+      </c>
+      <c r="D3" s="54">
+        <v>1996</v>
+      </c>
+      <c r="E3" s="54">
+        <v>1997</v>
+      </c>
+      <c r="F3" s="54">
+        <v>1998</v>
+      </c>
+      <c r="G3" s="55">
+        <v>1999</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="59">
+        <f>[1]Выручка!C4-[1]Себестоимость!C5</f>
+        <v>1100</v>
+      </c>
+      <c r="C4" s="59">
+        <f>[1]Выручка!D4-[1]Себестоимость!D5</f>
+        <v>1110</v>
+      </c>
+      <c r="D4" s="59">
+        <f>[1]Выручка!E4-[1]Себестоимость!E5</f>
+        <v>1000</v>
+      </c>
+      <c r="E4" s="59">
+        <f>[1]Выручка!F4-[1]Себестоимость!F5</f>
+        <v>1980</v>
+      </c>
+      <c r="F4" s="59">
+        <f>[1]Выручка!G4-[1]Себестоимость!G5</f>
+        <v>1420</v>
+      </c>
+      <c r="G4" s="59">
+        <f>[1]Выручка!H4-[1]Себестоимость!H5</f>
+        <v>1068.2000000000003</v>
+      </c>
+      <c r="H4" s="10">
+        <f>SUM(B4:G4)</f>
+        <v>7678.2000000000007</v>
+      </c>
+      <c r="I4" s="60">
+        <f t="shared" ref="I4:I10" si="0">H4/SUM($H$4:$H$10)</f>
+        <v>0.19412041320935031</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="59">
+        <f>[1]Выручка!C5-[1]Себестоимость!C6</f>
+        <v>1996.5</v>
+      </c>
+      <c r="C5" s="59">
+        <f>[1]Выручка!D5-[1]Себестоимость!D6</f>
+        <v>1969.9999999999998</v>
+      </c>
+      <c r="D5" s="59">
+        <f>[1]Выручка!E5-[1]Себестоимость!E6</f>
+        <v>2400</v>
+      </c>
+      <c r="E5" s="59">
+        <f>[1]Выручка!F5-[1]Себестоимость!F6</f>
+        <v>1400</v>
+      </c>
+      <c r="F5" s="59">
+        <f>[1]Выручка!G5-[1]Себестоимость!G6</f>
+        <v>2100</v>
+      </c>
+      <c r="G5" s="59">
+        <f>[1]Выручка!H5-[1]Себестоимость!H6</f>
+        <v>1808.1999999999998</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" ref="H5:H10" si="1">SUM(B5:G5)</f>
+        <v>11674.7</v>
+      </c>
+      <c r="I5" s="60">
+        <f t="shared" si="0"/>
+        <v>0.29516000991055219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="59">
+        <f>[1]Выручка!C6-[1]Себестоимость!C7</f>
+        <v>220.00000000000006</v>
+      </c>
+      <c r="C6" s="59">
+        <f>[1]Выручка!D6-[1]Себестоимость!D7</f>
+        <v>169.00000000000006</v>
+      </c>
+      <c r="D6" s="59">
+        <f>[1]Выручка!E6-[1]Себестоимость!E7</f>
+        <v>26</v>
+      </c>
+      <c r="E6" s="59">
+        <f>[1]Выручка!F6-[1]Себестоимость!F7</f>
+        <v>193</v>
+      </c>
+      <c r="F6" s="59">
+        <f>[1]Выручка!G6-[1]Себестоимость!G7</f>
+        <v>198</v>
+      </c>
+      <c r="G6" s="59">
+        <f>[1]Выручка!H6-[1]Себестоимость!H7</f>
+        <v>232</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>1038</v>
+      </c>
+      <c r="I6" s="60">
+        <f t="shared" si="0"/>
+        <v>2.6242737739483941E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="59">
+        <f>[1]Выручка!C7-[1]Себестоимость!C8</f>
+        <v>96</v>
+      </c>
+      <c r="C7" s="59">
+        <f>[1]Выручка!D7-[1]Себестоимость!D8</f>
+        <v>112</v>
+      </c>
+      <c r="D7" s="59">
+        <f>[1]Выручка!E7-[1]Себестоимость!E8</f>
+        <v>227</v>
+      </c>
+      <c r="E7" s="59">
+        <f>[1]Выручка!F7-[1]Себестоимость!F8</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="59">
+        <f>[1]Выручка!G7-[1]Себестоимость!G8</f>
+        <v>108</v>
+      </c>
+      <c r="G7" s="59">
+        <f>[1]Выручка!H7-[1]Себестоимость!H8</f>
+        <v>140</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="I7" s="60">
+        <f t="shared" si="0"/>
+        <v>1.9795822398859273E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="59">
+        <f>[1]Выручка!C8-[1]Себестоимость!C9</f>
+        <v>1000</v>
+      </c>
+      <c r="C8" s="59">
+        <f>[1]Выручка!D8-[1]Себестоимость!D9</f>
+        <v>963</v>
+      </c>
+      <c r="D8" s="59">
+        <f>[1]Выручка!E8-[1]Себестоимость!E9</f>
+        <v>1333</v>
+      </c>
+      <c r="E8" s="59">
+        <f>[1]Выручка!F8-[1]Себестоимость!F9</f>
+        <v>1564</v>
+      </c>
+      <c r="F8" s="59">
+        <f>[1]Выручка!G8-[1]Себестоимость!G9</f>
+        <v>1773.8999999999996</v>
+      </c>
+      <c r="G8" s="59">
+        <f>[1]Выручка!H8-[1]Себестоимость!H9</f>
+        <v>2068.9</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
+        <v>8702.7999999999993</v>
+      </c>
+      <c r="I8" s="60">
+        <f t="shared" si="0"/>
+        <v>0.22002437186818963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="59">
+        <f>[1]Выручка!C9-[1]Себестоимость!C10</f>
+        <v>110</v>
+      </c>
+      <c r="C9" s="59">
+        <f>[1]Выручка!D9-[1]Себестоимость!D10</f>
+        <v>100</v>
+      </c>
+      <c r="D9" s="59">
+        <f>[1]Выручка!E9-[1]Себестоимость!E10</f>
+        <v>190</v>
+      </c>
+      <c r="E9" s="59">
+        <f>[1]Выручка!F9-[1]Себестоимость!F10</f>
+        <v>129</v>
+      </c>
+      <c r="F9" s="59">
+        <f>[1]Выручка!G9-[1]Себестоимость!G10</f>
+        <v>141.10000000000002</v>
+      </c>
+      <c r="G9" s="59">
+        <f>[1]Выручка!H9-[1]Себестоимость!H10</f>
+        <v>-163.39999999999998</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
+        <v>506.70000000000005</v>
+      </c>
+      <c r="I9" s="60">
+        <f t="shared" si="0"/>
+        <v>1.281040001213537E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="59">
+        <f>[1]Выручка!C10-[1]Себестоимость!C11</f>
+        <v>1336</v>
+      </c>
+      <c r="C10" s="59">
+        <f>[1]Выручка!D10-[1]Себестоимость!D11</f>
+        <v>911</v>
+      </c>
+      <c r="D10" s="59">
+        <f>[1]Выручка!E10-[1]Себестоимость!E11</f>
+        <v>1030</v>
+      </c>
+      <c r="E10" s="59">
+        <f>[1]Выручка!F10-[1]Себестоимость!F11</f>
+        <v>1760</v>
+      </c>
+      <c r="F10" s="59">
+        <f>[1]Выручка!G10-[1]Себестоимость!G11</f>
+        <v>2000.1999999999998</v>
+      </c>
+      <c r="G10" s="59">
+        <f>[1]Выручка!H10-[1]Себестоимость!H11</f>
+        <v>2133.1999999999998</v>
+      </c>
+      <c r="H10" s="62">
+        <f t="shared" si="1"/>
+        <v>9170.4</v>
+      </c>
+      <c r="I10" s="63">
+        <f t="shared" si="0"/>
+        <v>0.23184624486142921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="65">
+        <f>SUM(B4:B10)</f>
+        <v>5858.5</v>
+      </c>
+      <c r="C11" s="65">
+        <f t="shared" ref="C11:G11" si="2">SUM(C4:C10)</f>
+        <v>5335</v>
+      </c>
+      <c r="D11" s="65">
+        <f t="shared" si="2"/>
+        <v>6206</v>
+      </c>
+      <c r="E11" s="65">
+        <f t="shared" si="2"/>
+        <v>7126</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="2"/>
+        <v>7741.2</v>
+      </c>
+      <c r="G11" s="65">
+        <f t="shared" si="2"/>
+        <v>7287.1</v>
+      </c>
+      <c r="H11" s="66">
+        <f>SUM(H4:H10)</f>
+        <v>39553.800000000003</v>
+      </c>
+      <c r="I11" s="67">
+        <f>SUM(I4:I10)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J3:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>